--- a/public/templates/soal_mtk.xlsx
+++ b/public/templates/soal_mtk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\cbt-darmah\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479D8BC1-60F9-4CAC-BFB0-183CF95FA37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2002CB00-132F-486D-B34C-206269AC1C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{E19B1D53-3A36-4A9B-B692-BF9EB6070660}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="147">
   <si>
     <t>no</t>
   </si>
@@ -249,23 +249,6 @@
   </si>
   <si>
     <t>360 satuan luas</t>
-  </si>
-  <si>
-    <t>Taman sebuah kota terlihat seperti gambar diarsir.
-#gambar_10_mtk#
-Jika di sekeliling taman akan ditanami bunga mawar dengan biaya Rp 50.000,00 per meter maka biaya yang diperlukan seluruhnya adalah ….</t>
-  </si>
-  <si>
-    <t>Rp 6.280.000,00</t>
-  </si>
-  <si>
-    <t>Rp 3.140.000,00</t>
-  </si>
-  <si>
-    <t>Rp 2.460.000,00</t>
-  </si>
-  <si>
-    <t>Rp 1.570.000,00</t>
   </si>
   <si>
     <t>Limas tegak dengan alas berbentuk persegi. Jika keliling alas 56 cm dan tinggi limas 24 cm, luas seluruh permukaan limas tersebut adalah ....</t>
@@ -556,6 +539,18 @@
       </rPr>
       <t>+30t. Tentukan waktu yang diperlukan untuk mencapai ketinggian maksimum peluru tersebut.</t>
     </r>
+  </si>
+  <si>
+    <t>Panjang sisi miring dan tinggi suatu segitiga siku-siku berturut-turut adalah 25 cm dan 24 cm, maka panjang sisi yang lainnya adalah ....</t>
+  </si>
+  <si>
+    <t>4 cm</t>
+  </si>
+  <si>
+    <t>5 cm</t>
+  </si>
+  <si>
+    <t>6 cm</t>
   </si>
 </sst>
 </file>
@@ -621,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -650,6 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B734485-586B-4589-8EBC-8EBACD344187}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,16 +1423,16 @@
         <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
@@ -1450,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
@@ -1470,7 +1466,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>59</v>
@@ -1493,7 +1489,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>63</v>
@@ -1534,24 +1530,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>72</v>
+      <c r="B25" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>7</v>
@@ -1562,19 +1558,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>9</v>
@@ -1585,19 +1581,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1604,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
@@ -1631,7 +1627,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1654,19 +1650,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>9</v>
@@ -1677,7 +1673,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C31" s="5">
         <v>2172</v>
@@ -1700,7 +1696,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2">
         <v>15</v>
@@ -1723,19 +1719,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>9</v>
@@ -1746,19 +1742,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>8</v>
@@ -1769,19 +1765,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>7</v>
@@ -1792,19 +1788,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>7</v>
@@ -1815,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1834,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -1861,19 +1857,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
         <v>7</v>
@@ -1884,7 +1880,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C40">
         <v>14</v>
@@ -1907,19 +1903,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>9</v>
